--- a/R/projects/mini_project01/res/(2019년 14차 한국복지패널조사) 조사설계서-가구원용(beta1).xlsx
+++ b/R/projects/mini_project01/res/(2019년 14차 한국복지패널조사) 조사설계서-가구원용(beta1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CPBUserN\Downloads\(2019년 14차 한국복지패널조사) 조사설계서(beta2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BigData\projects\mini_project01\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1602E11-A0BE-40E0-B205-64A8ED63431B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDA23EE-F890-4934-BEB3-853DC449654C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4703,24 +4703,195 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4730,182 +4901,11 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="55" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -5321,19 +5321,19 @@
   <dimension ref="A1:G312"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E215" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F220" sqref="F220:F223"/>
+      <selection pane="bottomRight" activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.09765625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.8984375" style="68" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="24.8984375" style="68" customWidth="1"/>
     <col min="3" max="3" width="7.8984375" style="5" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="11.796875" style="5" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" style="5" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="30.69921875" style="5" customWidth="1"/>
     <col min="7" max="7" width="46.69921875" style="70" customWidth="1"/>
     <col min="8" max="16384" width="8.8984375" style="4"/>
@@ -5367,13 +5367,13 @@
         <v>561</v>
       </c>
       <c r="B2" s="9"/>
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="172" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="146" t="s">
+      <c r="D2" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="175" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="108" t="s">
@@ -5388,9 +5388,9 @@
         <v>562</v>
       </c>
       <c r="B3" s="9"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="150"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="176"/>
       <c r="F3" s="120" t="s">
         <v>21</v>
       </c>
@@ -5403,9 +5403,9 @@
         <v>563</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="150"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="176"/>
       <c r="F4" s="120" t="s">
         <v>14</v>
       </c>
@@ -5418,9 +5418,9 @@
         <v>564</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="151"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="177"/>
       <c r="F5" s="108" t="s">
         <v>17</v>
       </c>
@@ -5433,8 +5433,8 @@
         <v>358</v>
       </c>
       <c r="B6" s="47"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="147"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="135"/>
       <c r="E6" s="109" t="s">
         <v>361</v>
       </c>
@@ -5450,9 +5450,9 @@
         <v>565</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="147"/>
-      <c r="E7" s="152" t="s">
+      <c r="C7" s="134"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="136" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="108" t="s">
@@ -5467,9 +5467,9 @@
         <v>566</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="145"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="153"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="137"/>
       <c r="F8" s="120" t="s">
         <v>24</v>
       </c>
@@ -5480,9 +5480,9 @@
         <v>568</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="145"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="153"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="137"/>
       <c r="F9" s="108" t="s">
         <v>25</v>
       </c>
@@ -5493,9 +5493,9 @@
         <v>569</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="154"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="178"/>
       <c r="F10" s="108" t="s">
         <v>29</v>
       </c>
@@ -5508,9 +5508,9 @@
         <v>570</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="145"/>
-      <c r="D11" s="148"/>
-      <c r="E11" s="147" t="s">
+      <c r="C11" s="134"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="135" t="s">
         <v>2</v>
       </c>
       <c r="F11" s="108" t="s">
@@ -5527,9 +5527,9 @@
       <c r="B12" s="9" t="s">
         <v>788</v>
       </c>
-      <c r="C12" s="145"/>
-      <c r="D12" s="148"/>
-      <c r="E12" s="147"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="174"/>
+      <c r="E12" s="135"/>
       <c r="F12" s="108" t="s">
         <v>964</v>
       </c>
@@ -5542,9 +5542,9 @@
         <v>572</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="145"/>
-      <c r="D13" s="148"/>
-      <c r="E13" s="147"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="135"/>
       <c r="F13" s="108" t="s">
         <v>966</v>
       </c>
@@ -5559,9 +5559,9 @@
       <c r="B14" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="C14" s="145"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="147"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="174"/>
+      <c r="E14" s="135"/>
       <c r="F14" s="108" t="s">
         <v>965</v>
       </c>
@@ -5574,9 +5574,9 @@
         <v>955</v>
       </c>
       <c r="B15" s="9"/>
-      <c r="C15" s="145"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="147"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="135"/>
       <c r="F15" s="108" t="s">
         <v>959</v>
       </c>
@@ -5591,9 +5591,9 @@
       <c r="B16" s="9" t="s">
         <v>953</v>
       </c>
-      <c r="C16" s="145"/>
-      <c r="D16" s="148"/>
-      <c r="E16" s="147"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="135"/>
       <c r="F16" s="108" t="s">
         <v>967</v>
       </c>
@@ -5606,9 +5606,9 @@
         <v>957</v>
       </c>
       <c r="B17" s="9"/>
-      <c r="C17" s="145"/>
-      <c r="D17" s="148"/>
-      <c r="E17" s="147"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="174"/>
+      <c r="E17" s="135"/>
       <c r="F17" s="108" t="s">
         <v>952</v>
       </c>
@@ -5623,9 +5623,9 @@
       <c r="B18" s="9" t="s">
         <v>954</v>
       </c>
-      <c r="C18" s="145"/>
-      <c r="D18" s="148"/>
-      <c r="E18" s="147"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="174"/>
+      <c r="E18" s="135"/>
       <c r="F18" s="108" t="s">
         <v>968</v>
       </c>
@@ -5638,9 +5638,9 @@
         <v>567</v>
       </c>
       <c r="B19" s="9"/>
-      <c r="C19" s="145"/>
-      <c r="D19" s="148"/>
-      <c r="E19" s="147"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="135"/>
       <c r="F19" s="108" t="s">
         <v>962</v>
       </c>
@@ -5653,9 +5653,9 @@
         <v>961</v>
       </c>
       <c r="B20" s="9"/>
-      <c r="C20" s="145"/>
-      <c r="D20" s="148"/>
-      <c r="E20" s="147"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="174"/>
+      <c r="E20" s="135"/>
       <c r="F20" s="108" t="s">
         <v>960</v>
       </c>
@@ -5668,8 +5668,8 @@
         <v>574</v>
       </c>
       <c r="B21" s="9"/>
-      <c r="C21" s="145"/>
-      <c r="D21" s="147"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="135"/>
       <c r="E21" s="110" t="s">
         <v>16</v>
       </c>
@@ -5693,7 +5693,7 @@
       <c r="D22" s="108" t="s">
         <v>507</v>
       </c>
-      <c r="E22" s="152" t="s">
+      <c r="E22" s="136" t="s">
         <v>894</v>
       </c>
       <c r="F22" s="108" t="s">
@@ -5710,13 +5710,13 @@
       <c r="B23" s="74" t="s">
         <v>351</v>
       </c>
-      <c r="C23" s="194" t="s">
+      <c r="C23" s="140" t="s">
         <v>895</v>
       </c>
-      <c r="D23" s="152" t="s">
+      <c r="D23" s="136" t="s">
         <v>895</v>
       </c>
-      <c r="E23" s="153"/>
+      <c r="E23" s="137"/>
       <c r="F23" s="108" t="s">
         <v>896</v>
       </c>
@@ -5731,9 +5731,9 @@
       <c r="B24" s="74" t="s">
         <v>351</v>
       </c>
-      <c r="C24" s="195"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="153"/>
+      <c r="C24" s="141"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="137"/>
       <c r="F24" s="108" t="s">
         <v>897</v>
       </c>
@@ -5754,7 +5754,7 @@
       <c r="D25" s="108" t="s">
         <v>898</v>
       </c>
-      <c r="E25" s="153"/>
+      <c r="E25" s="137"/>
       <c r="F25" s="108" t="s">
         <v>403</v>
       </c>
@@ -5769,13 +5769,13 @@
       <c r="B26" s="74" t="s">
         <v>353</v>
       </c>
-      <c r="C26" s="145" t="s">
+      <c r="C26" s="134" t="s">
         <v>538</v>
       </c>
-      <c r="D26" s="147" t="s">
+      <c r="D26" s="135" t="s">
         <v>538</v>
       </c>
-      <c r="E26" s="153"/>
+      <c r="E26" s="137"/>
       <c r="F26" s="108" t="s">
         <v>539</v>
       </c>
@@ -5790,9 +5790,9 @@
       <c r="B27" s="74" t="s">
         <v>352</v>
       </c>
-      <c r="C27" s="145"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="153"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="135"/>
+      <c r="E27" s="137"/>
       <c r="F27" s="108" t="s">
         <v>404</v>
       </c>
@@ -5807,9 +5807,9 @@
       <c r="B28" s="74" t="s">
         <v>354</v>
       </c>
-      <c r="C28" s="145"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="153"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="137"/>
       <c r="F28" s="108" t="s">
         <v>405</v>
       </c>
@@ -5824,13 +5824,13 @@
       <c r="B29" s="74" t="s">
         <v>352</v>
       </c>
-      <c r="C29" s="145" t="s">
+      <c r="C29" s="134" t="s">
         <v>900</v>
       </c>
-      <c r="D29" s="147" t="s">
+      <c r="D29" s="135" t="s">
         <v>900</v>
       </c>
-      <c r="E29" s="153"/>
+      <c r="E29" s="137"/>
       <c r="F29" s="108" t="s">
         <v>406</v>
       </c>
@@ -5845,9 +5845,9 @@
       <c r="B30" s="74" t="s">
         <v>352</v>
       </c>
-      <c r="C30" s="145"/>
-      <c r="D30" s="147"/>
-      <c r="E30" s="153"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="135"/>
+      <c r="E30" s="137"/>
       <c r="F30" s="108" t="s">
         <v>408</v>
       </c>
@@ -5862,13 +5862,13 @@
       <c r="B31" s="74" t="s">
         <v>353</v>
       </c>
-      <c r="C31" s="145" t="s">
+      <c r="C31" s="134" t="s">
         <v>901</v>
       </c>
-      <c r="D31" s="147" t="s">
+      <c r="D31" s="135" t="s">
         <v>901</v>
       </c>
-      <c r="E31" s="153"/>
+      <c r="E31" s="137"/>
       <c r="F31" s="108" t="s">
         <v>540</v>
       </c>
@@ -5883,9 +5883,9 @@
       <c r="B32" s="74" t="s">
         <v>352</v>
       </c>
-      <c r="C32" s="145"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="153"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="137"/>
       <c r="F32" s="108" t="s">
         <v>410</v>
       </c>
@@ -5900,9 +5900,9 @@
       <c r="B33" s="74" t="s">
         <v>354</v>
       </c>
-      <c r="C33" s="145"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="153"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="137"/>
       <c r="F33" s="108" t="s">
         <v>411</v>
       </c>
@@ -5917,13 +5917,13 @@
       <c r="B34" s="74" t="s">
         <v>353</v>
       </c>
-      <c r="C34" s="145" t="s">
+      <c r="C34" s="134" t="s">
         <v>541</v>
       </c>
-      <c r="D34" s="147" t="s">
+      <c r="D34" s="135" t="s">
         <v>541</v>
       </c>
-      <c r="E34" s="192"/>
+      <c r="E34" s="138"/>
       <c r="F34" s="108" t="s">
         <v>902</v>
       </c>
@@ -5938,9 +5938,9 @@
       <c r="B35" s="74" t="s">
         <v>352</v>
       </c>
-      <c r="C35" s="145"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="192"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="138"/>
       <c r="F35" s="108" t="s">
         <v>412</v>
       </c>
@@ -5955,9 +5955,9 @@
       <c r="B36" s="74" t="s">
         <v>354</v>
       </c>
-      <c r="C36" s="145"/>
-      <c r="D36" s="147"/>
-      <c r="E36" s="193"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="139"/>
       <c r="F36" s="108" t="s">
         <v>413</v>
       </c>
@@ -5978,7 +5978,7 @@
       <c r="D37" s="108" t="s">
         <v>542</v>
       </c>
-      <c r="E37" s="147" t="s">
+      <c r="E37" s="135" t="s">
         <v>543</v>
       </c>
       <c r="F37" s="108" t="s">
@@ -5995,13 +5995,13 @@
       <c r="B38" s="74" t="s">
         <v>351</v>
       </c>
-      <c r="C38" s="145" t="s">
+      <c r="C38" s="134" t="s">
         <v>509</v>
       </c>
-      <c r="D38" s="147" t="s">
+      <c r="D38" s="135" t="s">
         <v>509</v>
       </c>
-      <c r="E38" s="147"/>
+      <c r="E38" s="135"/>
       <c r="F38" s="108" t="s">
         <v>416</v>
       </c>
@@ -6016,9 +6016,9 @@
       <c r="B39" s="74" t="s">
         <v>351</v>
       </c>
-      <c r="C39" s="145"/>
-      <c r="D39" s="147"/>
-      <c r="E39" s="147"/>
+      <c r="C39" s="134"/>
+      <c r="D39" s="135"/>
+      <c r="E39" s="135"/>
       <c r="F39" s="108" t="s">
         <v>417</v>
       </c>
@@ -6033,13 +6033,13 @@
       <c r="B40" s="74" t="s">
         <v>352</v>
       </c>
-      <c r="C40" s="145" t="s">
+      <c r="C40" s="134" t="s">
         <v>832</v>
       </c>
-      <c r="D40" s="147" t="s">
+      <c r="D40" s="135" t="s">
         <v>832</v>
       </c>
-      <c r="E40" s="147"/>
+      <c r="E40" s="135"/>
       <c r="F40" s="108" t="s">
         <v>419</v>
       </c>
@@ -6054,9 +6054,9 @@
       <c r="B41" s="74" t="s">
         <v>354</v>
       </c>
-      <c r="C41" s="145"/>
-      <c r="D41" s="147"/>
-      <c r="E41" s="147"/>
+      <c r="C41" s="134"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="135"/>
       <c r="F41" s="108" t="s">
         <v>420</v>
       </c>
@@ -6077,7 +6077,7 @@
       <c r="D42" s="108" t="s">
         <v>513</v>
       </c>
-      <c r="E42" s="196" t="s">
+      <c r="E42" s="131" t="s">
         <v>544</v>
       </c>
       <c r="F42" s="108" t="s">
@@ -6094,13 +6094,13 @@
       <c r="B43" s="74" t="s">
         <v>422</v>
       </c>
-      <c r="C43" s="145" t="s">
+      <c r="C43" s="134" t="s">
         <v>512</v>
       </c>
-      <c r="D43" s="147" t="s">
+      <c r="D43" s="135" t="s">
         <v>512</v>
       </c>
-      <c r="E43" s="197"/>
+      <c r="E43" s="132"/>
       <c r="F43" s="108" t="s">
         <v>423</v>
       </c>
@@ -6115,9 +6115,9 @@
       <c r="B44" s="74" t="s">
         <v>422</v>
       </c>
-      <c r="C44" s="145"/>
-      <c r="D44" s="147"/>
-      <c r="E44" s="197"/>
+      <c r="C44" s="134"/>
+      <c r="D44" s="135"/>
+      <c r="E44" s="132"/>
       <c r="F44" s="108" t="s">
         <v>424</v>
       </c>
@@ -6132,13 +6132,13 @@
       <c r="B45" s="74" t="s">
         <v>353</v>
       </c>
-      <c r="C45" s="145" t="s">
+      <c r="C45" s="134" t="s">
         <v>546</v>
       </c>
-      <c r="D45" s="147" t="s">
+      <c r="D45" s="135" t="s">
         <v>546</v>
       </c>
-      <c r="E45" s="197"/>
+      <c r="E45" s="132"/>
       <c r="F45" s="108" t="s">
         <v>904</v>
       </c>
@@ -6153,9 +6153,9 @@
       <c r="B46" s="74" t="s">
         <v>352</v>
       </c>
-      <c r="C46" s="145"/>
-      <c r="D46" s="147"/>
-      <c r="E46" s="197"/>
+      <c r="C46" s="134"/>
+      <c r="D46" s="135"/>
+      <c r="E46" s="132"/>
       <c r="F46" s="108" t="s">
         <v>426</v>
       </c>
@@ -6170,9 +6170,9 @@
       <c r="B47" s="74" t="s">
         <v>354</v>
       </c>
-      <c r="C47" s="145"/>
-      <c r="D47" s="147"/>
-      <c r="E47" s="198"/>
+      <c r="C47" s="134"/>
+      <c r="D47" s="135"/>
+      <c r="E47" s="133"/>
       <c r="F47" s="108" t="s">
         <v>427</v>
       </c>
@@ -6193,7 +6193,7 @@
       <c r="D48" s="108" t="s">
         <v>514</v>
       </c>
-      <c r="E48" s="196" t="s">
+      <c r="E48" s="131" t="s">
         <v>547</v>
       </c>
       <c r="F48" s="108" t="s">
@@ -6210,13 +6210,13 @@
       <c r="B49" s="74" t="s">
         <v>429</v>
       </c>
-      <c r="C49" s="145" t="s">
+      <c r="C49" s="134" t="s">
         <v>515</v>
       </c>
-      <c r="D49" s="147" t="s">
+      <c r="D49" s="135" t="s">
         <v>515</v>
       </c>
-      <c r="E49" s="197"/>
+      <c r="E49" s="132"/>
       <c r="F49" s="108" t="s">
         <v>905</v>
       </c>
@@ -6231,9 +6231,9 @@
       <c r="B50" s="74" t="s">
         <v>352</v>
       </c>
-      <c r="C50" s="145"/>
-      <c r="D50" s="147"/>
-      <c r="E50" s="197"/>
+      <c r="C50" s="134"/>
+      <c r="D50" s="135"/>
+      <c r="E50" s="132"/>
       <c r="F50" s="108" t="s">
         <v>430</v>
       </c>
@@ -6248,9 +6248,9 @@
       <c r="B51" s="74" t="s">
         <v>354</v>
       </c>
-      <c r="C51" s="145"/>
-      <c r="D51" s="147"/>
-      <c r="E51" s="198"/>
+      <c r="C51" s="134"/>
+      <c r="D51" s="135"/>
+      <c r="E51" s="133"/>
       <c r="F51" s="108" t="s">
         <v>431</v>
       </c>
@@ -6271,7 +6271,7 @@
       <c r="D52" s="108" t="s">
         <v>548</v>
       </c>
-      <c r="E52" s="196" t="s">
+      <c r="E52" s="131" t="s">
         <v>906</v>
       </c>
       <c r="F52" s="108" t="s">
@@ -6288,13 +6288,13 @@
       <c r="B53" s="74" t="s">
         <v>429</v>
       </c>
-      <c r="C53" s="145" t="s">
+      <c r="C53" s="134" t="s">
         <v>549</v>
       </c>
-      <c r="D53" s="147" t="s">
+      <c r="D53" s="135" t="s">
         <v>549</v>
       </c>
-      <c r="E53" s="197"/>
+      <c r="E53" s="132"/>
       <c r="F53" s="108" t="s">
         <v>550</v>
       </c>
@@ -6309,9 +6309,9 @@
       <c r="B54" s="74" t="s">
         <v>352</v>
       </c>
-      <c r="C54" s="145"/>
-      <c r="D54" s="147"/>
-      <c r="E54" s="197"/>
+      <c r="C54" s="134"/>
+      <c r="D54" s="135"/>
+      <c r="E54" s="132"/>
       <c r="F54" s="108" t="s">
         <v>907</v>
       </c>
@@ -6326,9 +6326,9 @@
       <c r="B55" s="74" t="s">
         <v>354</v>
       </c>
-      <c r="C55" s="145"/>
-      <c r="D55" s="147"/>
-      <c r="E55" s="198"/>
+      <c r="C55" s="134"/>
+      <c r="D55" s="135"/>
+      <c r="E55" s="133"/>
       <c r="F55" s="108" t="s">
         <v>908</v>
       </c>
@@ -6349,7 +6349,7 @@
       <c r="D56" s="117" t="s">
         <v>507</v>
       </c>
-      <c r="E56" s="163" t="s">
+      <c r="E56" s="143" t="s">
         <v>559</v>
       </c>
       <c r="F56" s="117" t="s">
@@ -6372,7 +6372,7 @@
       <c r="D57" s="117" t="s">
         <v>542</v>
       </c>
-      <c r="E57" s="164"/>
+      <c r="E57" s="144"/>
       <c r="F57" s="117" t="s">
         <v>302</v>
       </c>
@@ -6393,7 +6393,7 @@
       <c r="D58" s="117" t="s">
         <v>509</v>
       </c>
-      <c r="E58" s="164"/>
+      <c r="E58" s="144"/>
       <c r="F58" s="117" t="s">
         <v>304</v>
       </c>
@@ -6408,13 +6408,13 @@
       <c r="B59" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="C59" s="159" t="s">
+      <c r="C59" s="155" t="s">
         <v>513</v>
       </c>
-      <c r="D59" s="158" t="s">
+      <c r="D59" s="156" t="s">
         <v>513</v>
       </c>
-      <c r="E59" s="164"/>
+      <c r="E59" s="144"/>
       <c r="F59" s="117" t="s">
         <v>306</v>
       </c>
@@ -6429,9 +6429,9 @@
       <c r="B60" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="C60" s="159"/>
-      <c r="D60" s="158"/>
-      <c r="E60" s="164"/>
+      <c r="C60" s="155"/>
+      <c r="D60" s="156"/>
+      <c r="E60" s="144"/>
       <c r="F60" s="117" t="s">
         <v>308</v>
       </c>
@@ -6446,13 +6446,13 @@
       <c r="B61" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="C61" s="159" t="s">
+      <c r="C61" s="155" t="s">
         <v>514</v>
       </c>
-      <c r="D61" s="158" t="s">
+      <c r="D61" s="156" t="s">
         <v>514</v>
       </c>
-      <c r="E61" s="164"/>
+      <c r="E61" s="144"/>
       <c r="F61" s="117" t="s">
         <v>310</v>
       </c>
@@ -6467,9 +6467,9 @@
       <c r="B62" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="C62" s="159"/>
-      <c r="D62" s="158"/>
-      <c r="E62" s="164"/>
+      <c r="C62" s="155"/>
+      <c r="D62" s="156"/>
+      <c r="E62" s="144"/>
       <c r="F62" s="117" t="s">
         <v>311</v>
       </c>
@@ -6484,13 +6484,13 @@
       <c r="B63" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="C63" s="160" t="s">
+      <c r="C63" s="187" t="s">
         <v>548</v>
       </c>
-      <c r="D63" s="163" t="s">
+      <c r="D63" s="143" t="s">
         <v>548</v>
       </c>
-      <c r="E63" s="164"/>
+      <c r="E63" s="144"/>
       <c r="F63" s="117" t="s">
         <v>313</v>
       </c>
@@ -6505,9 +6505,9 @@
       <c r="B64" s="16" t="s">
         <v>790</v>
       </c>
-      <c r="C64" s="161"/>
-      <c r="D64" s="164"/>
-      <c r="E64" s="164"/>
+      <c r="C64" s="188"/>
+      <c r="D64" s="144"/>
+      <c r="E64" s="144"/>
       <c r="F64" s="117" t="s">
         <v>791</v>
       </c>
@@ -6522,9 +6522,9 @@
       <c r="B65" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="C65" s="161"/>
-      <c r="D65" s="164"/>
-      <c r="E65" s="164"/>
+      <c r="C65" s="188"/>
+      <c r="D65" s="144"/>
+      <c r="E65" s="144"/>
       <c r="F65" s="117" t="s">
         <v>315</v>
       </c>
@@ -6539,9 +6539,9 @@
       <c r="B66" s="16" t="s">
         <v>793</v>
       </c>
-      <c r="C66" s="162"/>
-      <c r="D66" s="165"/>
-      <c r="E66" s="164"/>
+      <c r="C66" s="189"/>
+      <c r="D66" s="171"/>
+      <c r="E66" s="144"/>
       <c r="F66" s="117" t="s">
         <v>794</v>
       </c>
@@ -6562,7 +6562,7 @@
       <c r="D67" s="117" t="s">
         <v>796</v>
       </c>
-      <c r="E67" s="164"/>
+      <c r="E67" s="144"/>
       <c r="F67" s="117" t="s">
         <v>316</v>
       </c>
@@ -6583,7 +6583,7 @@
       <c r="D68" s="117" t="s">
         <v>797</v>
       </c>
-      <c r="E68" s="164"/>
+      <c r="E68" s="144"/>
       <c r="F68" s="117" t="s">
         <v>318</v>
       </c>
@@ -6598,13 +6598,13 @@
       <c r="B69" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="C69" s="159" t="s">
+      <c r="C69" s="155" t="s">
         <v>798</v>
       </c>
-      <c r="D69" s="158" t="s">
+      <c r="D69" s="156" t="s">
         <v>798</v>
       </c>
-      <c r="E69" s="164"/>
+      <c r="E69" s="144"/>
       <c r="F69" s="117" t="s">
         <v>320</v>
       </c>
@@ -6619,9 +6619,9 @@
       <c r="B70" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="C70" s="159"/>
-      <c r="D70" s="158"/>
-      <c r="E70" s="164"/>
+      <c r="C70" s="155"/>
+      <c r="D70" s="156"/>
+      <c r="E70" s="144"/>
       <c r="F70" s="117" t="s">
         <v>321</v>
       </c>
@@ -6642,7 +6642,7 @@
       <c r="D71" s="117" t="s">
         <v>800</v>
       </c>
-      <c r="E71" s="164"/>
+      <c r="E71" s="144"/>
       <c r="F71" s="117" t="s">
         <v>801</v>
       </c>
@@ -6663,7 +6663,7 @@
       <c r="D72" s="117" t="s">
         <v>800</v>
       </c>
-      <c r="E72" s="164"/>
+      <c r="E72" s="144"/>
       <c r="F72" s="117" t="s">
         <v>803</v>
       </c>
@@ -6684,7 +6684,7 @@
       <c r="D73" s="117" t="s">
         <v>805</v>
       </c>
-      <c r="E73" s="164"/>
+      <c r="E73" s="144"/>
       <c r="F73" s="117" t="s">
         <v>322</v>
       </c>
@@ -6705,7 +6705,7 @@
       <c r="D74" s="117" t="s">
         <v>287</v>
       </c>
-      <c r="E74" s="164"/>
+      <c r="E74" s="144"/>
       <c r="F74" s="117" t="s">
         <v>323</v>
       </c>
@@ -6726,7 +6726,7 @@
       <c r="D75" s="117" t="s">
         <v>288</v>
       </c>
-      <c r="E75" s="164"/>
+      <c r="E75" s="144"/>
       <c r="F75" s="117" t="s">
         <v>325</v>
       </c>
@@ -6747,7 +6747,7 @@
       <c r="D76" s="117" t="s">
         <v>289</v>
       </c>
-      <c r="E76" s="164"/>
+      <c r="E76" s="144"/>
       <c r="F76" s="117" t="s">
         <v>326</v>
       </c>
@@ -6762,13 +6762,13 @@
       <c r="B77" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="C77" s="166" t="s">
+      <c r="C77" s="190" t="s">
         <v>810</v>
       </c>
-      <c r="D77" s="163" t="s">
+      <c r="D77" s="143" t="s">
         <v>810</v>
       </c>
-      <c r="E77" s="164"/>
+      <c r="E77" s="144"/>
       <c r="F77" s="117" t="s">
         <v>290</v>
       </c>
@@ -6783,9 +6783,9 @@
       <c r="B78" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="C78" s="167"/>
-      <c r="D78" s="164"/>
-      <c r="E78" s="164"/>
+      <c r="C78" s="191"/>
+      <c r="D78" s="144"/>
+      <c r="E78" s="144"/>
       <c r="F78" s="117" t="s">
         <v>291</v>
       </c>
@@ -6800,9 +6800,9 @@
       <c r="B79" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="C79" s="167"/>
-      <c r="D79" s="164"/>
-      <c r="E79" s="164"/>
+      <c r="C79" s="191"/>
+      <c r="D79" s="144"/>
+      <c r="E79" s="144"/>
       <c r="F79" s="117" t="s">
         <v>292</v>
       </c>
@@ -6817,9 +6817,9 @@
       <c r="B80" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="C80" s="167"/>
-      <c r="D80" s="164"/>
-      <c r="E80" s="164"/>
+      <c r="C80" s="191"/>
+      <c r="D80" s="144"/>
+      <c r="E80" s="144"/>
       <c r="F80" s="117" t="s">
         <v>812</v>
       </c>
@@ -6834,9 +6834,9 @@
       <c r="B81" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="C81" s="167"/>
-      <c r="D81" s="164"/>
-      <c r="E81" s="164"/>
+      <c r="C81" s="191"/>
+      <c r="D81" s="144"/>
+      <c r="E81" s="144"/>
       <c r="F81" s="117" t="s">
         <v>813</v>
       </c>
@@ -6851,9 +6851,9 @@
       <c r="B82" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="C82" s="167"/>
-      <c r="D82" s="164"/>
-      <c r="E82" s="164"/>
+      <c r="C82" s="191"/>
+      <c r="D82" s="144"/>
+      <c r="E82" s="144"/>
       <c r="F82" s="117" t="s">
         <v>814</v>
       </c>
@@ -6868,9 +6868,9 @@
       <c r="B83" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="C83" s="167"/>
-      <c r="D83" s="164"/>
-      <c r="E83" s="164"/>
+      <c r="C83" s="191"/>
+      <c r="D83" s="144"/>
+      <c r="E83" s="144"/>
       <c r="F83" s="117" t="s">
         <v>815</v>
       </c>
@@ -6885,9 +6885,9 @@
       <c r="B84" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="C84" s="167"/>
-      <c r="D84" s="164"/>
-      <c r="E84" s="164"/>
+      <c r="C84" s="191"/>
+      <c r="D84" s="144"/>
+      <c r="E84" s="144"/>
       <c r="F84" s="117" t="s">
         <v>816</v>
       </c>
@@ -6902,9 +6902,9 @@
       <c r="B85" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="C85" s="167"/>
-      <c r="D85" s="164"/>
-      <c r="E85" s="164"/>
+      <c r="C85" s="191"/>
+      <c r="D85" s="144"/>
+      <c r="E85" s="144"/>
       <c r="F85" s="117" t="s">
         <v>817</v>
       </c>
@@ -6919,9 +6919,9 @@
       <c r="B86" s="16" t="s">
         <v>799</v>
       </c>
-      <c r="C86" s="167"/>
-      <c r="D86" s="164"/>
-      <c r="E86" s="164"/>
+      <c r="C86" s="191"/>
+      <c r="D86" s="144"/>
+      <c r="E86" s="144"/>
       <c r="F86" s="117" t="s">
         <v>818</v>
       </c>
@@ -6936,9 +6936,9 @@
       <c r="B87" s="16" t="s">
         <v>799</v>
       </c>
-      <c r="C87" s="167"/>
-      <c r="D87" s="164"/>
-      <c r="E87" s="164"/>
+      <c r="C87" s="191"/>
+      <c r="D87" s="144"/>
+      <c r="E87" s="144"/>
       <c r="F87" s="117" t="s">
         <v>819</v>
       </c>
@@ -6953,9 +6953,9 @@
       <c r="B88" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="C88" s="167"/>
-      <c r="D88" s="164"/>
-      <c r="E88" s="164"/>
+      <c r="C88" s="191"/>
+      <c r="D88" s="144"/>
+      <c r="E88" s="144"/>
       <c r="F88" s="117" t="s">
         <v>293</v>
       </c>
@@ -6970,13 +6970,13 @@
       <c r="B89" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="C89" s="159" t="s">
+      <c r="C89" s="155" t="s">
         <v>820</v>
       </c>
-      <c r="D89" s="158" t="s">
+      <c r="D89" s="156" t="s">
         <v>821</v>
       </c>
-      <c r="E89" s="164"/>
+      <c r="E89" s="144"/>
       <c r="F89" s="117" t="s">
         <v>330</v>
       </c>
@@ -6991,9 +6991,9 @@
       <c r="B90" s="17" t="s">
         <v>822</v>
       </c>
-      <c r="C90" s="159"/>
-      <c r="D90" s="158"/>
-      <c r="E90" s="164"/>
+      <c r="C90" s="155"/>
+      <c r="D90" s="156"/>
+      <c r="E90" s="144"/>
       <c r="F90" s="117" t="s">
         <v>4</v>
       </c>
@@ -7008,13 +7008,13 @@
       <c r="B91" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="C91" s="159" t="s">
+      <c r="C91" s="155" t="s">
         <v>823</v>
       </c>
-      <c r="D91" s="158" t="s">
+      <c r="D91" s="156" t="s">
         <v>821</v>
       </c>
-      <c r="E91" s="164"/>
+      <c r="E91" s="144"/>
       <c r="F91" s="117" t="s">
         <v>331</v>
       </c>
@@ -7029,9 +7029,9 @@
       <c r="B92" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="C92" s="159"/>
-      <c r="D92" s="158"/>
-      <c r="E92" s="165"/>
+      <c r="C92" s="155"/>
+      <c r="D92" s="156"/>
+      <c r="E92" s="171"/>
       <c r="F92" s="117" t="s">
         <v>3</v>
       </c>
@@ -7052,7 +7052,7 @@
       <c r="D93" s="119" t="s">
         <v>362</v>
       </c>
-      <c r="E93" s="168" t="s">
+      <c r="E93" s="157" t="s">
         <v>555</v>
       </c>
       <c r="F93" s="119" t="s">
@@ -7075,7 +7075,7 @@
       <c r="D94" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="E94" s="169"/>
+      <c r="E94" s="158"/>
       <c r="F94" s="119" t="s">
         <v>364</v>
       </c>
@@ -7090,13 +7090,13 @@
       <c r="B95" s="72" t="s">
         <v>350</v>
       </c>
-      <c r="C95" s="171" t="s">
+      <c r="C95" s="160" t="s">
         <v>513</v>
       </c>
-      <c r="D95" s="172" t="s">
+      <c r="D95" s="161" t="s">
         <v>513</v>
       </c>
-      <c r="E95" s="169"/>
+      <c r="E95" s="158"/>
       <c r="F95" s="119" t="s">
         <v>366</v>
       </c>
@@ -7111,13 +7111,13 @@
       <c r="B96" s="72" t="s">
         <v>350</v>
       </c>
-      <c r="C96" s="171"/>
-      <c r="D96" s="172"/>
-      <c r="E96" s="169"/>
+      <c r="C96" s="160"/>
+      <c r="D96" s="161"/>
+      <c r="E96" s="158"/>
       <c r="F96" s="119" t="s">
         <v>368</v>
       </c>
-      <c r="G96" s="173" t="s">
+      <c r="G96" s="162" t="s">
         <v>328</v>
       </c>
     </row>
@@ -7128,13 +7128,13 @@
       <c r="B97" s="72" t="s">
         <v>350</v>
       </c>
-      <c r="C97" s="171"/>
-      <c r="D97" s="172"/>
-      <c r="E97" s="169"/>
+      <c r="C97" s="160"/>
+      <c r="D97" s="161"/>
+      <c r="E97" s="158"/>
       <c r="F97" s="119" t="s">
         <v>369</v>
       </c>
-      <c r="G97" s="174"/>
+      <c r="G97" s="163"/>
     </row>
     <row r="98" spans="1:7" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A98" s="71" t="s">
@@ -7143,13 +7143,13 @@
       <c r="B98" s="72" t="s">
         <v>350</v>
       </c>
-      <c r="C98" s="171"/>
-      <c r="D98" s="172"/>
-      <c r="E98" s="169"/>
+      <c r="C98" s="160"/>
+      <c r="D98" s="161"/>
+      <c r="E98" s="158"/>
       <c r="F98" s="119" t="s">
         <v>370</v>
       </c>
-      <c r="G98" s="174"/>
+      <c r="G98" s="163"/>
     </row>
     <row r="99" spans="1:7" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A99" s="71" t="s">
@@ -7158,13 +7158,13 @@
       <c r="B99" s="72" t="s">
         <v>350</v>
       </c>
-      <c r="C99" s="171"/>
-      <c r="D99" s="172"/>
-      <c r="E99" s="169"/>
+      <c r="C99" s="160"/>
+      <c r="D99" s="161"/>
+      <c r="E99" s="158"/>
       <c r="F99" s="119" t="s">
         <v>371</v>
       </c>
-      <c r="G99" s="174"/>
+      <c r="G99" s="163"/>
     </row>
     <row r="100" spans="1:7" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A100" s="71" t="s">
@@ -7173,13 +7173,13 @@
       <c r="B100" s="72" t="s">
         <v>350</v>
       </c>
-      <c r="C100" s="171"/>
-      <c r="D100" s="172"/>
-      <c r="E100" s="169"/>
+      <c r="C100" s="160"/>
+      <c r="D100" s="161"/>
+      <c r="E100" s="158"/>
       <c r="F100" s="119" t="s">
         <v>372</v>
       </c>
-      <c r="G100" s="174"/>
+      <c r="G100" s="163"/>
     </row>
     <row r="101" spans="1:7" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A101" s="71" t="s">
@@ -7188,13 +7188,13 @@
       <c r="B101" s="72" t="s">
         <v>350</v>
       </c>
-      <c r="C101" s="171"/>
-      <c r="D101" s="172"/>
-      <c r="E101" s="169"/>
+      <c r="C101" s="160"/>
+      <c r="D101" s="161"/>
+      <c r="E101" s="158"/>
       <c r="F101" s="119" t="s">
         <v>373</v>
       </c>
-      <c r="G101" s="174"/>
+      <c r="G101" s="163"/>
     </row>
     <row r="102" spans="1:7" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A102" s="71" t="s">
@@ -7203,13 +7203,13 @@
       <c r="B102" s="72" t="s">
         <v>350</v>
       </c>
-      <c r="C102" s="171"/>
-      <c r="D102" s="172"/>
-      <c r="E102" s="170"/>
+      <c r="C102" s="160"/>
+      <c r="D102" s="161"/>
+      <c r="E102" s="159"/>
       <c r="F102" s="119" t="s">
         <v>374</v>
       </c>
-      <c r="G102" s="175"/>
+      <c r="G102" s="164"/>
     </row>
     <row r="103" spans="1:7" s="77" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="71" t="s">
@@ -7224,7 +7224,7 @@
       <c r="D103" s="118" t="s">
         <v>507</v>
       </c>
-      <c r="E103" s="176" t="s">
+      <c r="E103" s="165" t="s">
         <v>825</v>
       </c>
       <c r="F103" s="119" t="s">
@@ -7247,7 +7247,7 @@
       <c r="D104" s="118" t="s">
         <v>826</v>
       </c>
-      <c r="E104" s="177"/>
+      <c r="E104" s="166"/>
       <c r="F104" s="119" t="s">
         <v>377</v>
       </c>
@@ -7268,7 +7268,7 @@
       <c r="D105" s="118" t="s">
         <v>827</v>
       </c>
-      <c r="E105" s="177"/>
+      <c r="E105" s="166"/>
       <c r="F105" s="119" t="s">
         <v>379</v>
       </c>
@@ -7289,7 +7289,7 @@
       <c r="D106" s="118" t="s">
         <v>829</v>
       </c>
-      <c r="E106" s="177"/>
+      <c r="E106" s="166"/>
       <c r="F106" s="119" t="s">
         <v>380</v>
       </c>
@@ -7304,13 +7304,13 @@
       <c r="B107" s="73" t="s">
         <v>351</v>
       </c>
-      <c r="C107" s="171" t="s">
+      <c r="C107" s="160" t="s">
         <v>831</v>
       </c>
-      <c r="D107" s="171" t="s">
+      <c r="D107" s="160" t="s">
         <v>831</v>
       </c>
-      <c r="E107" s="177"/>
+      <c r="E107" s="166"/>
       <c r="F107" s="119" t="s">
         <v>381</v>
       </c>
@@ -7325,9 +7325,9 @@
       <c r="B108" s="73" t="s">
         <v>356</v>
       </c>
-      <c r="C108" s="171"/>
-      <c r="D108" s="171"/>
-      <c r="E108" s="177"/>
+      <c r="C108" s="160"/>
+      <c r="D108" s="160"/>
+      <c r="E108" s="166"/>
       <c r="F108" s="119" t="s">
         <v>383</v>
       </c>
@@ -7342,9 +7342,9 @@
       <c r="B109" s="73" t="s">
         <v>356</v>
       </c>
-      <c r="C109" s="171"/>
-      <c r="D109" s="171"/>
-      <c r="E109" s="177"/>
+      <c r="C109" s="160"/>
+      <c r="D109" s="160"/>
+      <c r="E109" s="166"/>
       <c r="F109" s="119" t="s">
         <v>385</v>
       </c>
@@ -7359,13 +7359,13 @@
       <c r="B110" s="73" t="s">
         <v>351</v>
       </c>
-      <c r="C110" s="171" t="s">
+      <c r="C110" s="160" t="s">
         <v>833</v>
       </c>
-      <c r="D110" s="171" t="s">
+      <c r="D110" s="160" t="s">
         <v>833</v>
       </c>
-      <c r="E110" s="177"/>
+      <c r="E110" s="166"/>
       <c r="F110" s="119" t="s">
         <v>387</v>
       </c>
@@ -7380,9 +7380,9 @@
       <c r="B111" s="73" t="s">
         <v>356</v>
       </c>
-      <c r="C111" s="171"/>
-      <c r="D111" s="171"/>
-      <c r="E111" s="177"/>
+      <c r="C111" s="160"/>
+      <c r="D111" s="160"/>
+      <c r="E111" s="166"/>
       <c r="F111" s="119" t="s">
         <v>388</v>
       </c>
@@ -7397,9 +7397,9 @@
       <c r="B112" s="73" t="s">
         <v>356</v>
       </c>
-      <c r="C112" s="171"/>
-      <c r="D112" s="171"/>
-      <c r="E112" s="177"/>
+      <c r="C112" s="160"/>
+      <c r="D112" s="160"/>
+      <c r="E112" s="166"/>
       <c r="F112" s="119" t="s">
         <v>389</v>
       </c>
@@ -7414,13 +7414,13 @@
       <c r="B113" s="73" t="s">
         <v>350</v>
       </c>
-      <c r="C113" s="179" t="s">
+      <c r="C113" s="168" t="s">
         <v>821</v>
       </c>
-      <c r="D113" s="179" t="s">
+      <c r="D113" s="168" t="s">
         <v>834</v>
       </c>
-      <c r="E113" s="177"/>
+      <c r="E113" s="166"/>
       <c r="F113" s="119" t="s">
         <v>390</v>
       </c>
@@ -7435,9 +7435,9 @@
       <c r="B114" s="73" t="s">
         <v>350</v>
       </c>
-      <c r="C114" s="180"/>
-      <c r="D114" s="180"/>
-      <c r="E114" s="177"/>
+      <c r="C114" s="169"/>
+      <c r="D114" s="169"/>
+      <c r="E114" s="166"/>
       <c r="F114" s="119" t="s">
         <v>392</v>
       </c>
@@ -7452,9 +7452,9 @@
       <c r="B115" s="73" t="s">
         <v>350</v>
       </c>
-      <c r="C115" s="180"/>
-      <c r="D115" s="180"/>
-      <c r="E115" s="177"/>
+      <c r="C115" s="169"/>
+      <c r="D115" s="169"/>
+      <c r="E115" s="166"/>
       <c r="F115" s="119" t="s">
         <v>393</v>
       </c>
@@ -7469,9 +7469,9 @@
       <c r="B116" s="73" t="s">
         <v>350</v>
       </c>
-      <c r="C116" s="180"/>
-      <c r="D116" s="180"/>
-      <c r="E116" s="177"/>
+      <c r="C116" s="169"/>
+      <c r="D116" s="169"/>
+      <c r="E116" s="166"/>
       <c r="F116" s="119" t="s">
         <v>394</v>
       </c>
@@ -7486,9 +7486,9 @@
       <c r="B117" s="73" t="s">
         <v>350</v>
       </c>
-      <c r="C117" s="180"/>
-      <c r="D117" s="180"/>
-      <c r="E117" s="177"/>
+      <c r="C117" s="169"/>
+      <c r="D117" s="169"/>
+      <c r="E117" s="166"/>
       <c r="F117" s="119" t="s">
         <v>395</v>
       </c>
@@ -7503,9 +7503,9 @@
       <c r="B118" s="73" t="s">
         <v>350</v>
       </c>
-      <c r="C118" s="180"/>
-      <c r="D118" s="180"/>
-      <c r="E118" s="177"/>
+      <c r="C118" s="169"/>
+      <c r="D118" s="169"/>
+      <c r="E118" s="166"/>
       <c r="F118" s="119" t="s">
         <v>396</v>
       </c>
@@ -7520,9 +7520,9 @@
       <c r="B119" s="73" t="s">
         <v>350</v>
       </c>
-      <c r="C119" s="180"/>
-      <c r="D119" s="180"/>
-      <c r="E119" s="177"/>
+      <c r="C119" s="169"/>
+      <c r="D119" s="169"/>
+      <c r="E119" s="166"/>
       <c r="F119" s="119" t="s">
         <v>397</v>
       </c>
@@ -7537,9 +7537,9 @@
       <c r="B120" s="73" t="s">
         <v>350</v>
       </c>
-      <c r="C120" s="181"/>
-      <c r="D120" s="181"/>
-      <c r="E120" s="178"/>
+      <c r="C120" s="170"/>
+      <c r="D120" s="170"/>
+      <c r="E120" s="167"/>
       <c r="F120" s="119" t="s">
         <v>398</v>
       </c>
@@ -7560,7 +7560,7 @@
       <c r="D121" s="122" t="s">
         <v>910</v>
       </c>
-      <c r="E121" s="152" t="s">
+      <c r="E121" s="136" t="s">
         <v>911</v>
       </c>
       <c r="F121" s="124" t="s">
@@ -7583,7 +7583,7 @@
       <c r="D122" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="E122" s="153"/>
+      <c r="E122" s="137"/>
       <c r="F122" s="124" t="s">
         <v>435</v>
       </c>
@@ -7598,13 +7598,13 @@
       <c r="B123" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C123" s="133" t="s">
+      <c r="C123" s="179" t="s">
         <v>909</v>
       </c>
-      <c r="D123" s="135" t="s">
+      <c r="D123" s="181" t="s">
         <v>912</v>
       </c>
-      <c r="E123" s="153"/>
+      <c r="E123" s="137"/>
       <c r="F123" s="124" t="s">
         <v>436</v>
       </c>
@@ -7619,9 +7619,9 @@
       <c r="B124" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C124" s="134"/>
-      <c r="D124" s="136"/>
-      <c r="E124" s="153"/>
+      <c r="C124" s="180"/>
+      <c r="D124" s="182"/>
+      <c r="E124" s="137"/>
       <c r="F124" s="124" t="s">
         <v>437</v>
       </c>
@@ -7642,7 +7642,7 @@
       <c r="D125" s="121" t="s">
         <v>913</v>
       </c>
-      <c r="E125" s="153"/>
+      <c r="E125" s="137"/>
       <c r="F125" s="124" t="s">
         <v>438</v>
       </c>
@@ -7663,7 +7663,7 @@
       <c r="D126" s="121" t="s">
         <v>914</v>
       </c>
-      <c r="E126" s="153"/>
+      <c r="E126" s="137"/>
       <c r="F126" s="124" t="s">
         <v>439</v>
       </c>
@@ -7684,7 +7684,7 @@
       <c r="D127" s="121" t="s">
         <v>915</v>
       </c>
-      <c r="E127" s="153"/>
+      <c r="E127" s="137"/>
       <c r="F127" s="124" t="s">
         <v>440</v>
       </c>
@@ -7705,7 +7705,7 @@
       <c r="D128" s="121" t="s">
         <v>551</v>
       </c>
-      <c r="E128" s="153"/>
+      <c r="E128" s="137"/>
       <c r="F128" s="124" t="s">
         <v>441</v>
       </c>
@@ -7726,7 +7726,7 @@
       <c r="D129" s="121" t="s">
         <v>548</v>
       </c>
-      <c r="E129" s="153"/>
+      <c r="E129" s="137"/>
       <c r="F129" s="124" t="s">
         <v>442</v>
       </c>
@@ -7747,7 +7747,7 @@
       <c r="D130" s="121" t="s">
         <v>549</v>
       </c>
-      <c r="E130" s="153"/>
+      <c r="E130" s="137"/>
       <c r="F130" s="124" t="s">
         <v>443</v>
       </c>
@@ -7768,7 +7768,7 @@
       <c r="D131" s="124" t="s">
         <v>916</v>
       </c>
-      <c r="E131" s="153"/>
+      <c r="E131" s="137"/>
       <c r="F131" s="124" t="s">
         <v>444</v>
       </c>
@@ -7789,7 +7789,7 @@
       <c r="D132" s="124" t="s">
         <v>557</v>
       </c>
-      <c r="E132" s="153"/>
+      <c r="E132" s="137"/>
       <c r="F132" s="124" t="s">
         <v>445</v>
       </c>
@@ -7810,7 +7810,7 @@
       <c r="D133" s="124" t="s">
         <v>918</v>
       </c>
-      <c r="E133" s="153"/>
+      <c r="E133" s="137"/>
       <c r="F133" s="124" t="s">
         <v>446</v>
       </c>
@@ -7825,13 +7825,13 @@
       <c r="B134" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="C134" s="140" t="s">
+      <c r="C134" s="183" t="s">
         <v>552</v>
       </c>
-      <c r="D134" s="141" t="s">
+      <c r="D134" s="184" t="s">
         <v>552</v>
       </c>
-      <c r="E134" s="153"/>
+      <c r="E134" s="137"/>
       <c r="F134" s="124" t="s">
         <v>447</v>
       </c>
@@ -7846,13 +7846,13 @@
       <c r="B135" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="C135" s="140"/>
-      <c r="D135" s="141"/>
-      <c r="E135" s="153"/>
+      <c r="C135" s="183"/>
+      <c r="D135" s="184"/>
+      <c r="E135" s="137"/>
       <c r="F135" s="124" t="s">
         <v>448</v>
       </c>
-      <c r="G135" s="137" t="s">
+      <c r="G135" s="194" t="s">
         <v>804</v>
       </c>
     </row>
@@ -7863,13 +7863,13 @@
       <c r="B136" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="C136" s="140"/>
-      <c r="D136" s="141"/>
-      <c r="E136" s="153"/>
+      <c r="C136" s="183"/>
+      <c r="D136" s="184"/>
+      <c r="E136" s="137"/>
       <c r="F136" s="124" t="s">
         <v>449</v>
       </c>
-      <c r="G136" s="138"/>
+      <c r="G136" s="195"/>
     </row>
     <row r="137" spans="1:7" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
@@ -7878,13 +7878,13 @@
       <c r="B137" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="C137" s="140"/>
-      <c r="D137" s="141"/>
-      <c r="E137" s="153"/>
+      <c r="C137" s="183"/>
+      <c r="D137" s="184"/>
+      <c r="E137" s="137"/>
       <c r="F137" s="124" t="s">
         <v>450</v>
       </c>
-      <c r="G137" s="138"/>
+      <c r="G137" s="195"/>
     </row>
     <row r="138" spans="1:7" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A138" s="12" t="s">
@@ -7893,13 +7893,13 @@
       <c r="B138" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="C138" s="140"/>
-      <c r="D138" s="141"/>
-      <c r="E138" s="153"/>
+      <c r="C138" s="183"/>
+      <c r="D138" s="184"/>
+      <c r="E138" s="137"/>
       <c r="F138" s="124" t="s">
         <v>451</v>
       </c>
-      <c r="G138" s="139"/>
+      <c r="G138" s="196"/>
     </row>
     <row r="139" spans="1:7" s="8" customFormat="1" ht="19.2" x14ac:dyDescent="0.25">
       <c r="A139" s="12" t="s">
@@ -7908,9 +7908,9 @@
       <c r="B139" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="C139" s="140"/>
-      <c r="D139" s="141"/>
-      <c r="E139" s="153"/>
+      <c r="C139" s="183"/>
+      <c r="D139" s="184"/>
+      <c r="E139" s="137"/>
       <c r="F139" s="124" t="s">
         <v>452</v>
       </c>
@@ -7925,9 +7925,9 @@
       <c r="B140" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="C140" s="140"/>
-      <c r="D140" s="141"/>
-      <c r="E140" s="153"/>
+      <c r="C140" s="183"/>
+      <c r="D140" s="184"/>
+      <c r="E140" s="137"/>
       <c r="F140" s="124" t="s">
         <v>453</v>
       </c>
@@ -7948,7 +7948,7 @@
       <c r="D141" s="124" t="s">
         <v>920</v>
       </c>
-      <c r="E141" s="153"/>
+      <c r="E141" s="137"/>
       <c r="F141" s="124" t="s">
         <v>454</v>
       </c>
@@ -7963,13 +7963,13 @@
       <c r="B142" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C142" s="140" t="s">
+      <c r="C142" s="183" t="s">
         <v>922</v>
       </c>
-      <c r="D142" s="141" t="s">
+      <c r="D142" s="184" t="s">
         <v>922</v>
       </c>
-      <c r="E142" s="153"/>
+      <c r="E142" s="137"/>
       <c r="F142" s="124" t="s">
         <v>455</v>
       </c>
@@ -7984,13 +7984,13 @@
       <c r="B143" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C143" s="140"/>
-      <c r="D143" s="141"/>
-      <c r="E143" s="153"/>
+      <c r="C143" s="183"/>
+      <c r="D143" s="184"/>
+      <c r="E143" s="137"/>
       <c r="F143" s="124" t="s">
         <v>456</v>
       </c>
-      <c r="G143" s="137" t="s">
+      <c r="G143" s="194" t="s">
         <v>923</v>
       </c>
     </row>
@@ -8001,13 +8001,13 @@
       <c r="B144" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C144" s="140"/>
-      <c r="D144" s="141"/>
-      <c r="E144" s="153"/>
+      <c r="C144" s="183"/>
+      <c r="D144" s="184"/>
+      <c r="E144" s="137"/>
       <c r="F144" s="124" t="s">
         <v>457</v>
       </c>
-      <c r="G144" s="142"/>
+      <c r="G144" s="197"/>
     </row>
     <row r="145" spans="1:7" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="s">
@@ -8016,13 +8016,13 @@
       <c r="B145" s="15" t="s">
         <v>950</v>
       </c>
-      <c r="C145" s="140"/>
-      <c r="D145" s="141"/>
-      <c r="E145" s="153"/>
+      <c r="C145" s="183"/>
+      <c r="D145" s="184"/>
+      <c r="E145" s="137"/>
       <c r="F145" s="124" t="s">
         <v>458</v>
       </c>
-      <c r="G145" s="142"/>
+      <c r="G145" s="197"/>
     </row>
     <row r="146" spans="1:7" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A146" s="12" t="s">
@@ -8031,13 +8031,13 @@
       <c r="B146" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C146" s="140"/>
-      <c r="D146" s="141"/>
-      <c r="E146" s="153"/>
+      <c r="C146" s="183"/>
+      <c r="D146" s="184"/>
+      <c r="E146" s="137"/>
       <c r="F146" s="124" t="s">
         <v>459</v>
       </c>
-      <c r="G146" s="142"/>
+      <c r="G146" s="197"/>
     </row>
     <row r="147" spans="1:7" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A147" s="12" t="s">
@@ -8046,13 +8046,13 @@
       <c r="B147" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C147" s="140"/>
-      <c r="D147" s="141"/>
-      <c r="E147" s="153"/>
+      <c r="C147" s="183"/>
+      <c r="D147" s="184"/>
+      <c r="E147" s="137"/>
       <c r="F147" s="124" t="s">
         <v>460</v>
       </c>
-      <c r="G147" s="142"/>
+      <c r="G147" s="197"/>
     </row>
     <row r="148" spans="1:7" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A148" s="12" t="s">
@@ -8061,13 +8061,13 @@
       <c r="B148" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C148" s="140"/>
-      <c r="D148" s="141"/>
-      <c r="E148" s="153"/>
+      <c r="C148" s="183"/>
+      <c r="D148" s="184"/>
+      <c r="E148" s="137"/>
       <c r="F148" s="124" t="s">
         <v>461</v>
       </c>
-      <c r="G148" s="142"/>
+      <c r="G148" s="197"/>
     </row>
     <row r="149" spans="1:7" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A149" s="12" t="s">
@@ -8076,13 +8076,13 @@
       <c r="B149" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C149" s="140"/>
-      <c r="D149" s="141"/>
-      <c r="E149" s="153"/>
+      <c r="C149" s="183"/>
+      <c r="D149" s="184"/>
+      <c r="E149" s="137"/>
       <c r="F149" s="124" t="s">
         <v>462</v>
       </c>
-      <c r="G149" s="142"/>
+      <c r="G149" s="197"/>
     </row>
     <row r="150" spans="1:7" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A150" s="12" t="s">
@@ -8091,13 +8091,13 @@
       <c r="B150" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C150" s="140"/>
-      <c r="D150" s="141"/>
-      <c r="E150" s="153"/>
+      <c r="C150" s="183"/>
+      <c r="D150" s="184"/>
+      <c r="E150" s="137"/>
       <c r="F150" s="124" t="s">
         <v>463</v>
       </c>
-      <c r="G150" s="142"/>
+      <c r="G150" s="197"/>
     </row>
     <row r="151" spans="1:7" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A151" s="12" t="s">
@@ -8106,13 +8106,13 @@
       <c r="B151" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C151" s="140"/>
-      <c r="D151" s="141"/>
-      <c r="E151" s="153"/>
+      <c r="C151" s="183"/>
+      <c r="D151" s="184"/>
+      <c r="E151" s="137"/>
       <c r="F151" s="124" t="s">
         <v>464</v>
       </c>
-      <c r="G151" s="142"/>
+      <c r="G151" s="197"/>
     </row>
     <row r="152" spans="1:7" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A152" s="12" t="s">
@@ -8121,13 +8121,13 @@
       <c r="B152" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C152" s="140"/>
-      <c r="D152" s="141"/>
-      <c r="E152" s="153"/>
+      <c r="C152" s="183"/>
+      <c r="D152" s="184"/>
+      <c r="E152" s="137"/>
       <c r="F152" s="124" t="s">
         <v>465</v>
       </c>
-      <c r="G152" s="143"/>
+      <c r="G152" s="198"/>
     </row>
     <row r="153" spans="1:7" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A153" s="12" t="s">
@@ -8136,13 +8136,13 @@
       <c r="B153" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C153" s="140" t="s">
+      <c r="C153" s="183" t="s">
         <v>924</v>
       </c>
-      <c r="D153" s="141" t="s">
+      <c r="D153" s="184" t="s">
         <v>924</v>
       </c>
-      <c r="E153" s="153"/>
+      <c r="E153" s="137"/>
       <c r="F153" s="124" t="s">
         <v>466</v>
       </c>
@@ -8157,13 +8157,13 @@
       <c r="B154" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C154" s="140"/>
-      <c r="D154" s="141"/>
-      <c r="E154" s="153"/>
+      <c r="C154" s="183"/>
+      <c r="D154" s="184"/>
+      <c r="E154" s="137"/>
       <c r="F154" s="124" t="s">
         <v>467</v>
       </c>
-      <c r="G154" s="137" t="s">
+      <c r="G154" s="194" t="s">
         <v>923</v>
       </c>
     </row>
@@ -8174,13 +8174,13 @@
       <c r="B155" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C155" s="140"/>
-      <c r="D155" s="141"/>
-      <c r="E155" s="153"/>
+      <c r="C155" s="183"/>
+      <c r="D155" s="184"/>
+      <c r="E155" s="137"/>
       <c r="F155" s="124" t="s">
         <v>468</v>
       </c>
-      <c r="G155" s="142"/>
+      <c r="G155" s="197"/>
     </row>
     <row r="156" spans="1:7" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A156" s="12" t="s">
@@ -8189,13 +8189,13 @@
       <c r="B156" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C156" s="140"/>
-      <c r="D156" s="141"/>
-      <c r="E156" s="153"/>
+      <c r="C156" s="183"/>
+      <c r="D156" s="184"/>
+      <c r="E156" s="137"/>
       <c r="F156" s="124" t="s">
         <v>469</v>
       </c>
-      <c r="G156" s="142"/>
+      <c r="G156" s="197"/>
     </row>
     <row r="157" spans="1:7" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A157" s="12" t="s">
@@ -8204,13 +8204,13 @@
       <c r="B157" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C157" s="140"/>
-      <c r="D157" s="141"/>
-      <c r="E157" s="153"/>
+      <c r="C157" s="183"/>
+      <c r="D157" s="184"/>
+      <c r="E157" s="137"/>
       <c r="F157" s="124" t="s">
         <v>470</v>
       </c>
-      <c r="G157" s="142"/>
+      <c r="G157" s="197"/>
     </row>
     <row r="158" spans="1:7" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A158" s="12" t="s">
@@ -8219,13 +8219,13 @@
       <c r="B158" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C158" s="140"/>
-      <c r="D158" s="141"/>
-      <c r="E158" s="153"/>
+      <c r="C158" s="183"/>
+      <c r="D158" s="184"/>
+      <c r="E158" s="137"/>
       <c r="F158" s="124" t="s">
         <v>471</v>
       </c>
-      <c r="G158" s="142"/>
+      <c r="G158" s="197"/>
     </row>
     <row r="159" spans="1:7" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A159" s="12" t="s">
@@ -8234,13 +8234,13 @@
       <c r="B159" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C159" s="140"/>
-      <c r="D159" s="141"/>
-      <c r="E159" s="153"/>
+      <c r="C159" s="183"/>
+      <c r="D159" s="184"/>
+      <c r="E159" s="137"/>
       <c r="F159" s="124" t="s">
         <v>472</v>
       </c>
-      <c r="G159" s="142"/>
+      <c r="G159" s="197"/>
     </row>
     <row r="160" spans="1:7" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A160" s="12" t="s">
@@ -8249,13 +8249,13 @@
       <c r="B160" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C160" s="140"/>
-      <c r="D160" s="141"/>
-      <c r="E160" s="153"/>
+      <c r="C160" s="183"/>
+      <c r="D160" s="184"/>
+      <c r="E160" s="137"/>
       <c r="F160" s="124" t="s">
         <v>473</v>
       </c>
-      <c r="G160" s="142"/>
+      <c r="G160" s="197"/>
     </row>
     <row r="161" spans="1:7" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A161" s="12" t="s">
@@ -8264,13 +8264,13 @@
       <c r="B161" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C161" s="140"/>
-      <c r="D161" s="141"/>
-      <c r="E161" s="153"/>
+      <c r="C161" s="183"/>
+      <c r="D161" s="184"/>
+      <c r="E161" s="137"/>
       <c r="F161" s="124" t="s">
         <v>474</v>
       </c>
-      <c r="G161" s="142"/>
+      <c r="G161" s="197"/>
     </row>
     <row r="162" spans="1:7" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A162" s="12" t="s">
@@ -8279,13 +8279,13 @@
       <c r="B162" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C162" s="140"/>
-      <c r="D162" s="141"/>
-      <c r="E162" s="153"/>
+      <c r="C162" s="183"/>
+      <c r="D162" s="184"/>
+      <c r="E162" s="137"/>
       <c r="F162" s="124" t="s">
         <v>475</v>
       </c>
-      <c r="G162" s="143"/>
+      <c r="G162" s="198"/>
     </row>
     <row r="163" spans="1:7" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A163" s="12" t="s">
@@ -8294,13 +8294,13 @@
       <c r="B163" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C163" s="133" t="s">
+      <c r="C163" s="179" t="s">
         <v>926</v>
       </c>
-      <c r="D163" s="135" t="s">
+      <c r="D163" s="181" t="s">
         <v>927</v>
       </c>
-      <c r="E163" s="153"/>
+      <c r="E163" s="137"/>
       <c r="F163" s="124" t="s">
         <v>476</v>
       </c>
@@ -8315,13 +8315,13 @@
       <c r="B164" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C164" s="156"/>
-      <c r="D164" s="157"/>
-      <c r="E164" s="153"/>
+      <c r="C164" s="185"/>
+      <c r="D164" s="186"/>
+      <c r="E164" s="137"/>
       <c r="F164" s="124" t="s">
         <v>477</v>
       </c>
-      <c r="G164" s="131" t="s">
+      <c r="G164" s="192" t="s">
         <v>923</v>
       </c>
     </row>
@@ -8332,13 +8332,13 @@
       <c r="B165" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C165" s="134"/>
-      <c r="D165" s="136"/>
-      <c r="E165" s="153"/>
+      <c r="C165" s="180"/>
+      <c r="D165" s="182"/>
+      <c r="E165" s="137"/>
       <c r="F165" s="124" t="s">
         <v>478</v>
       </c>
-      <c r="G165" s="132"/>
+      <c r="G165" s="193"/>
     </row>
     <row r="166" spans="1:7" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A166" s="12" t="s">
@@ -8353,7 +8353,7 @@
       <c r="D166" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="E166" s="153"/>
+      <c r="E166" s="137"/>
       <c r="F166" s="124" t="s">
         <v>479</v>
       </c>
@@ -8374,7 +8374,7 @@
       <c r="D167" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="E167" s="153"/>
+      <c r="E167" s="137"/>
       <c r="F167" s="124" t="s">
         <v>480</v>
       </c>
@@ -8395,7 +8395,7 @@
       <c r="D168" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="E168" s="153"/>
+      <c r="E168" s="137"/>
       <c r="F168" s="124" t="s">
         <v>481</v>
       </c>
@@ -8416,7 +8416,7 @@
       <c r="D169" s="124" t="s">
         <v>294</v>
       </c>
-      <c r="E169" s="153"/>
+      <c r="E169" s="137"/>
       <c r="F169" s="124" t="s">
         <v>482</v>
       </c>
@@ -8437,7 +8437,7 @@
       <c r="D170" s="124" t="s">
         <v>932</v>
       </c>
-      <c r="E170" s="153"/>
+      <c r="E170" s="137"/>
       <c r="F170" s="124" t="s">
         <v>483</v>
       </c>
@@ -8452,13 +8452,13 @@
       <c r="B171" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C171" s="133" t="s">
+      <c r="C171" s="179" t="s">
         <v>506</v>
       </c>
-      <c r="D171" s="135" t="s">
+      <c r="D171" s="181" t="s">
         <v>553</v>
       </c>
-      <c r="E171" s="153"/>
+      <c r="E171" s="137"/>
       <c r="F171" s="124" t="s">
         <v>484</v>
       </c>
@@ -8473,9 +8473,9 @@
       <c r="B172" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C172" s="134"/>
-      <c r="D172" s="136"/>
-      <c r="E172" s="153"/>
+      <c r="C172" s="180"/>
+      <c r="D172" s="182"/>
+      <c r="E172" s="137"/>
       <c r="F172" s="124" t="s">
         <v>485</v>
       </c>
@@ -8496,7 +8496,7 @@
       <c r="D173" s="124" t="s">
         <v>297</v>
       </c>
-      <c r="E173" s="153"/>
+      <c r="E173" s="137"/>
       <c r="F173" s="124" t="s">
         <v>486</v>
       </c>
@@ -8511,13 +8511,13 @@
       <c r="B174" s="15" t="s">
         <v>936</v>
       </c>
-      <c r="C174" s="133" t="s">
+      <c r="C174" s="179" t="s">
         <v>934</v>
       </c>
-      <c r="D174" s="135" t="s">
+      <c r="D174" s="181" t="s">
         <v>937</v>
       </c>
-      <c r="E174" s="153"/>
+      <c r="E174" s="137"/>
       <c r="F174" s="124" t="s">
         <v>487</v>
       </c>
@@ -8532,9 +8532,9 @@
       <c r="B175" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C175" s="134"/>
-      <c r="D175" s="136"/>
-      <c r="E175" s="153"/>
+      <c r="C175" s="180"/>
+      <c r="D175" s="182"/>
+      <c r="E175" s="137"/>
       <c r="F175" s="124" t="s">
         <v>488</v>
       </c>
@@ -8555,7 +8555,7 @@
       <c r="D176" s="124" t="s">
         <v>938</v>
       </c>
-      <c r="E176" s="153"/>
+      <c r="E176" s="137"/>
       <c r="F176" s="124" t="s">
         <v>489</v>
       </c>
@@ -8570,13 +8570,13 @@
       <c r="B177" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C177" s="133" t="s">
+      <c r="C177" s="179" t="s">
         <v>940</v>
       </c>
-      <c r="D177" s="135" t="s">
+      <c r="D177" s="181" t="s">
         <v>941</v>
       </c>
-      <c r="E177" s="153"/>
+      <c r="E177" s="137"/>
       <c r="F177" s="124" t="s">
         <v>490</v>
       </c>
@@ -8591,9 +8591,9 @@
       <c r="B178" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="C178" s="134"/>
-      <c r="D178" s="136"/>
-      <c r="E178" s="153"/>
+      <c r="C178" s="180"/>
+      <c r="D178" s="182"/>
+      <c r="E178" s="137"/>
       <c r="F178" s="124" t="s">
         <v>491</v>
       </c>
@@ -8614,7 +8614,7 @@
       <c r="D179" s="121" t="s">
         <v>940</v>
       </c>
-      <c r="E179" s="153"/>
+      <c r="E179" s="137"/>
       <c r="F179" s="124" t="s">
         <v>492</v>
       </c>
@@ -8635,7 +8635,7 @@
       <c r="D180" s="121" t="s">
         <v>940</v>
       </c>
-      <c r="E180" s="153"/>
+      <c r="E180" s="137"/>
       <c r="F180" s="124" t="s">
         <v>493</v>
       </c>
@@ -8656,7 +8656,7 @@
       <c r="D181" s="121" t="s">
         <v>940</v>
       </c>
-      <c r="E181" s="153"/>
+      <c r="E181" s="137"/>
       <c r="F181" s="124" t="s">
         <v>494</v>
       </c>
@@ -8677,7 +8677,7 @@
       <c r="D182" s="121" t="s">
         <v>947</v>
       </c>
-      <c r="E182" s="155"/>
+      <c r="E182" s="142"/>
       <c r="F182" s="124" t="s">
         <v>948</v>
       </c>
@@ -8698,7 +8698,7 @@
       <c r="D183" s="111" t="s">
         <v>507</v>
       </c>
-      <c r="E183" s="163" t="s">
+      <c r="E183" s="143" t="s">
         <v>508</v>
       </c>
       <c r="F183" s="111" t="s">
@@ -8721,7 +8721,7 @@
       <c r="D184" s="111" t="s">
         <v>838</v>
       </c>
-      <c r="E184" s="164"/>
+      <c r="E184" s="144"/>
       <c r="F184" s="111" t="s">
         <v>839</v>
       </c>
@@ -8742,7 +8742,7 @@
       <c r="D185" s="111" t="s">
         <v>832</v>
       </c>
-      <c r="E185" s="164"/>
+      <c r="E185" s="144"/>
       <c r="F185" s="111" t="s">
         <v>510</v>
       </c>
@@ -8759,7 +8759,7 @@
       </c>
       <c r="C186" s="115"/>
       <c r="D186" s="111"/>
-      <c r="E186" s="164"/>
+      <c r="E186" s="144"/>
       <c r="F186" s="111" t="s">
         <v>511</v>
       </c>
@@ -8780,7 +8780,7 @@
       <c r="D187" s="111" t="s">
         <v>842</v>
       </c>
-      <c r="E187" s="164"/>
+      <c r="E187" s="144"/>
       <c r="F187" s="111" t="s">
         <v>843</v>
       </c>
@@ -8801,7 +8801,7 @@
       <c r="D188" s="111" t="s">
         <v>844</v>
       </c>
-      <c r="E188" s="164"/>
+      <c r="E188" s="144"/>
       <c r="F188" s="111" t="s">
         <v>845</v>
       </c>
@@ -8818,7 +8818,7 @@
       </c>
       <c r="C189" s="115"/>
       <c r="D189" s="111"/>
-      <c r="E189" s="182"/>
+      <c r="E189" s="145"/>
       <c r="F189" s="111" t="s">
         <v>846</v>
       </c>
@@ -8839,7 +8839,7 @@
       <c r="D190" s="111" t="s">
         <v>848</v>
       </c>
-      <c r="E190" s="183" t="s">
+      <c r="E190" s="146" t="s">
         <v>849</v>
       </c>
       <c r="F190" s="111" t="s">
@@ -8862,7 +8862,7 @@
       <c r="D191" s="111" t="s">
         <v>829</v>
       </c>
-      <c r="E191" s="183"/>
+      <c r="E191" s="146"/>
       <c r="F191" s="111" t="s">
         <v>851</v>
       </c>
@@ -8883,7 +8883,7 @@
       <c r="D192" s="111" t="s">
         <v>834</v>
       </c>
-      <c r="E192" s="183"/>
+      <c r="E192" s="146"/>
       <c r="F192" s="111" t="s">
         <v>853</v>
       </c>
@@ -8898,14 +8898,14 @@
       <c r="B193" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="C193" s="186" t="s">
+      <c r="C193" s="149" t="s">
         <v>821</v>
       </c>
-      <c r="D193" s="184" t="s">
+      <c r="D193" s="147" t="s">
         <v>854</v>
       </c>
-      <c r="E193" s="183"/>
-      <c r="F193" s="183" t="s">
+      <c r="E193" s="146"/>
+      <c r="F193" s="146" t="s">
         <v>855</v>
       </c>
       <c r="G193" s="59" t="s">
@@ -8919,10 +8919,10 @@
       <c r="B194" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="C194" s="187"/>
-      <c r="D194" s="189"/>
-      <c r="E194" s="183"/>
-      <c r="F194" s="183"/>
+      <c r="C194" s="150"/>
+      <c r="D194" s="152"/>
+      <c r="E194" s="146"/>
+      <c r="F194" s="146"/>
       <c r="G194" s="59" t="s">
         <v>339</v>
       </c>
@@ -8934,9 +8934,9 @@
       <c r="B195" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="C195" s="188"/>
-      <c r="D195" s="190"/>
-      <c r="E195" s="183"/>
+      <c r="C195" s="151"/>
+      <c r="D195" s="153"/>
+      <c r="E195" s="146"/>
       <c r="F195" s="111" t="s">
         <v>856</v>
       </c>
@@ -8951,14 +8951,14 @@
       <c r="B196" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="C196" s="186" t="s">
+      <c r="C196" s="149" t="s">
         <v>847</v>
       </c>
-      <c r="D196" s="184" t="s">
+      <c r="D196" s="147" t="s">
         <v>857</v>
       </c>
-      <c r="E196" s="183"/>
-      <c r="F196" s="183" t="s">
+      <c r="E196" s="146"/>
+      <c r="F196" s="146" t="s">
         <v>858</v>
       </c>
       <c r="G196" s="59" t="s">
@@ -8972,10 +8972,10 @@
       <c r="B197" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="C197" s="187"/>
-      <c r="D197" s="189"/>
-      <c r="E197" s="183"/>
-      <c r="F197" s="183"/>
+      <c r="C197" s="150"/>
+      <c r="D197" s="152"/>
+      <c r="E197" s="146"/>
+      <c r="F197" s="146"/>
       <c r="G197" s="59" t="s">
         <v>339</v>
       </c>
@@ -8987,9 +8987,9 @@
       <c r="B198" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="C198" s="187"/>
-      <c r="D198" s="189"/>
-      <c r="E198" s="183"/>
+      <c r="C198" s="150"/>
+      <c r="D198" s="152"/>
+      <c r="E198" s="146"/>
       <c r="F198" s="111" t="s">
         <v>859</v>
       </c>
@@ -9004,10 +9004,10 @@
       <c r="B199" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="C199" s="187"/>
-      <c r="D199" s="189"/>
-      <c r="E199" s="183"/>
-      <c r="F199" s="183" t="s">
+      <c r="C199" s="150"/>
+      <c r="D199" s="152"/>
+      <c r="E199" s="146"/>
+      <c r="F199" s="146" t="s">
         <v>860</v>
       </c>
       <c r="G199" s="59" t="s">
@@ -9021,10 +9021,10 @@
       <c r="B200" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="C200" s="187"/>
-      <c r="D200" s="189"/>
-      <c r="E200" s="183"/>
-      <c r="F200" s="183"/>
+      <c r="C200" s="150"/>
+      <c r="D200" s="152"/>
+      <c r="E200" s="146"/>
+      <c r="F200" s="146"/>
       <c r="G200" s="59" t="s">
         <v>339</v>
       </c>
@@ -9036,9 +9036,9 @@
       <c r="B201" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="C201" s="187"/>
-      <c r="D201" s="189"/>
-      <c r="E201" s="183"/>
+      <c r="C201" s="150"/>
+      <c r="D201" s="152"/>
+      <c r="E201" s="146"/>
       <c r="F201" s="111" t="s">
         <v>861</v>
       </c>
@@ -9053,10 +9053,10 @@
       <c r="B202" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="C202" s="187"/>
-      <c r="D202" s="189"/>
-      <c r="E202" s="183"/>
-      <c r="F202" s="183" t="s">
+      <c r="C202" s="150"/>
+      <c r="D202" s="152"/>
+      <c r="E202" s="146"/>
+      <c r="F202" s="146" t="s">
         <v>5</v>
       </c>
       <c r="G202" s="59" t="s">
@@ -9070,10 +9070,10 @@
       <c r="B203" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="C203" s="187"/>
-      <c r="D203" s="189"/>
-      <c r="E203" s="183"/>
-      <c r="F203" s="183"/>
+      <c r="C203" s="150"/>
+      <c r="D203" s="152"/>
+      <c r="E203" s="146"/>
+      <c r="F203" s="146"/>
       <c r="G203" s="59" t="s">
         <v>339</v>
       </c>
@@ -9085,9 +9085,9 @@
       <c r="B204" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="C204" s="187"/>
-      <c r="D204" s="189"/>
-      <c r="E204" s="183"/>
+      <c r="C204" s="150"/>
+      <c r="D204" s="152"/>
+      <c r="E204" s="146"/>
       <c r="F204" s="111" t="s">
         <v>6</v>
       </c>
@@ -9102,10 +9102,10 @@
       <c r="B205" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="C205" s="187"/>
-      <c r="D205" s="189"/>
-      <c r="E205" s="183"/>
-      <c r="F205" s="183" t="s">
+      <c r="C205" s="150"/>
+      <c r="D205" s="152"/>
+      <c r="E205" s="146"/>
+      <c r="F205" s="146" t="s">
         <v>862</v>
       </c>
       <c r="G205" s="59" t="s">
@@ -9119,10 +9119,10 @@
       <c r="B206" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="C206" s="187"/>
-      <c r="D206" s="189"/>
-      <c r="E206" s="183"/>
-      <c r="F206" s="183"/>
+      <c r="C206" s="150"/>
+      <c r="D206" s="152"/>
+      <c r="E206" s="146"/>
+      <c r="F206" s="146"/>
       <c r="G206" s="59" t="s">
         <v>339</v>
       </c>
@@ -9134,9 +9134,9 @@
       <c r="B207" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="C207" s="187"/>
-      <c r="D207" s="189"/>
-      <c r="E207" s="183"/>
+      <c r="C207" s="150"/>
+      <c r="D207" s="152"/>
+      <c r="E207" s="146"/>
       <c r="F207" s="111" t="s">
         <v>863</v>
       </c>
@@ -9151,10 +9151,10 @@
       <c r="B208" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="C208" s="187"/>
-      <c r="D208" s="189"/>
-      <c r="E208" s="183"/>
-      <c r="F208" s="183" t="s">
+      <c r="C208" s="150"/>
+      <c r="D208" s="152"/>
+      <c r="E208" s="146"/>
+      <c r="F208" s="146" t="s">
         <v>864</v>
       </c>
       <c r="G208" s="59" t="s">
@@ -9168,10 +9168,10 @@
       <c r="B209" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="C209" s="187"/>
-      <c r="D209" s="189"/>
-      <c r="E209" s="183"/>
-      <c r="F209" s="183"/>
+      <c r="C209" s="150"/>
+      <c r="D209" s="152"/>
+      <c r="E209" s="146"/>
+      <c r="F209" s="146"/>
       <c r="G209" s="59" t="s">
         <v>339</v>
       </c>
@@ -9183,9 +9183,9 @@
       <c r="B210" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="C210" s="187"/>
-      <c r="D210" s="189"/>
-      <c r="E210" s="183"/>
+      <c r="C210" s="150"/>
+      <c r="D210" s="152"/>
+      <c r="E210" s="146"/>
       <c r="F210" s="111" t="s">
         <v>865</v>
       </c>
@@ -9200,10 +9200,10 @@
       <c r="B211" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="C211" s="187"/>
-      <c r="D211" s="189"/>
-      <c r="E211" s="183"/>
-      <c r="F211" s="183" t="s">
+      <c r="C211" s="150"/>
+      <c r="D211" s="152"/>
+      <c r="E211" s="146"/>
+      <c r="F211" s="146" t="s">
         <v>866</v>
       </c>
       <c r="G211" s="59" t="s">
@@ -9217,10 +9217,10 @@
       <c r="B212" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="C212" s="187"/>
-      <c r="D212" s="189"/>
-      <c r="E212" s="183"/>
-      <c r="F212" s="183"/>
+      <c r="C212" s="150"/>
+      <c r="D212" s="152"/>
+      <c r="E212" s="146"/>
+      <c r="F212" s="146"/>
       <c r="G212" s="59" t="s">
         <v>339</v>
       </c>
@@ -9232,9 +9232,9 @@
       <c r="B213" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="C213" s="188"/>
-      <c r="D213" s="190"/>
-      <c r="E213" s="183"/>
+      <c r="C213" s="151"/>
+      <c r="D213" s="153"/>
+      <c r="E213" s="146"/>
       <c r="F213" s="111" t="s">
         <v>867</v>
       </c>
@@ -9249,13 +9249,13 @@
       <c r="B214" s="17" t="s">
         <v>868</v>
       </c>
-      <c r="C214" s="191" t="s">
+      <c r="C214" s="154" t="s">
         <v>821</v>
       </c>
-      <c r="D214" s="183" t="s">
+      <c r="D214" s="146" t="s">
         <v>869</v>
       </c>
-      <c r="E214" s="183"/>
+      <c r="E214" s="146"/>
       <c r="F214" s="111" t="s">
         <v>870</v>
       </c>
@@ -9270,9 +9270,9 @@
       <c r="B215" s="17" t="s">
         <v>871</v>
       </c>
-      <c r="C215" s="191"/>
-      <c r="D215" s="183"/>
-      <c r="E215" s="183"/>
+      <c r="C215" s="154"/>
+      <c r="D215" s="146"/>
+      <c r="E215" s="146"/>
       <c r="F215" s="111" t="s">
         <v>7</v>
       </c>
@@ -9287,9 +9287,9 @@
       <c r="B216" s="17" t="s">
         <v>871</v>
       </c>
-      <c r="C216" s="191"/>
-      <c r="D216" s="183"/>
-      <c r="E216" s="183"/>
+      <c r="C216" s="154"/>
+      <c r="D216" s="146"/>
+      <c r="E216" s="146"/>
       <c r="F216" s="111" t="s">
         <v>8</v>
       </c>
@@ -9304,13 +9304,13 @@
       <c r="B217" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="C217" s="191" t="s">
+      <c r="C217" s="154" t="s">
         <v>821</v>
       </c>
-      <c r="D217" s="183" t="s">
+      <c r="D217" s="146" t="s">
         <v>872</v>
       </c>
-      <c r="E217" s="183"/>
+      <c r="E217" s="146"/>
       <c r="F217" s="111" t="s">
         <v>873</v>
       </c>
@@ -9325,9 +9325,9 @@
       <c r="B218" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="C218" s="191"/>
-      <c r="D218" s="183"/>
-      <c r="E218" s="183"/>
+      <c r="C218" s="154"/>
+      <c r="D218" s="146"/>
+      <c r="E218" s="146"/>
       <c r="F218" s="111" t="s">
         <v>9</v>
       </c>
@@ -9342,9 +9342,9 @@
       <c r="B219" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="C219" s="191"/>
-      <c r="D219" s="183"/>
-      <c r="E219" s="183"/>
+      <c r="C219" s="154"/>
+      <c r="D219" s="146"/>
+      <c r="E219" s="146"/>
       <c r="F219" s="111" t="s">
         <v>10</v>
       </c>
@@ -9359,13 +9359,13 @@
       <c r="B220" s="17" t="s">
         <v>822</v>
       </c>
-      <c r="C220" s="191" t="s">
+      <c r="C220" s="154" t="s">
         <v>821</v>
       </c>
-      <c r="D220" s="183" t="s">
+      <c r="D220" s="146" t="s">
         <v>874</v>
       </c>
-      <c r="E220" s="183"/>
+      <c r="E220" s="146"/>
       <c r="F220" s="111" t="s">
         <v>875</v>
       </c>
@@ -9380,9 +9380,9 @@
       <c r="B221" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="C221" s="191"/>
-      <c r="D221" s="183"/>
-      <c r="E221" s="183"/>
+      <c r="C221" s="154"/>
+      <c r="D221" s="146"/>
+      <c r="E221" s="146"/>
       <c r="F221" s="111" t="s">
         <v>876</v>
       </c>
@@ -9397,9 +9397,9 @@
       <c r="B222" s="17" t="s">
         <v>877</v>
       </c>
-      <c r="C222" s="191"/>
-      <c r="D222" s="183"/>
-      <c r="E222" s="183"/>
+      <c r="C222" s="154"/>
+      <c r="D222" s="146"/>
+      <c r="E222" s="146"/>
       <c r="F222" s="111" t="s">
         <v>878</v>
       </c>
@@ -9414,9 +9414,9 @@
       <c r="B223" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="C223" s="191"/>
-      <c r="D223" s="183"/>
-      <c r="E223" s="183"/>
+      <c r="C223" s="154"/>
+      <c r="D223" s="146"/>
+      <c r="E223" s="146"/>
       <c r="F223" s="111" t="s">
         <v>879</v>
       </c>
@@ -9431,9 +9431,9 @@
       <c r="B224" s="17" t="s">
         <v>877</v>
       </c>
-      <c r="C224" s="191"/>
-      <c r="D224" s="183"/>
-      <c r="E224" s="183"/>
+      <c r="C224" s="154"/>
+      <c r="D224" s="146"/>
+      <c r="E224" s="146"/>
       <c r="F224" s="111" t="s">
         <v>880</v>
       </c>
@@ -9448,9 +9448,9 @@
       <c r="B225" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="C225" s="191"/>
-      <c r="D225" s="183"/>
-      <c r="E225" s="183"/>
+      <c r="C225" s="154"/>
+      <c r="D225" s="146"/>
+      <c r="E225" s="146"/>
       <c r="F225" s="111" t="s">
         <v>881</v>
       </c>
@@ -9465,9 +9465,9 @@
       <c r="B226" s="17" t="s">
         <v>877</v>
       </c>
-      <c r="C226" s="191"/>
-      <c r="D226" s="183"/>
-      <c r="E226" s="183"/>
+      <c r="C226" s="154"/>
+      <c r="D226" s="146"/>
+      <c r="E226" s="146"/>
       <c r="F226" s="111" t="s">
         <v>882</v>
       </c>
@@ -9482,9 +9482,9 @@
       <c r="B227" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="C227" s="191"/>
-      <c r="D227" s="183"/>
-      <c r="E227" s="183"/>
+      <c r="C227" s="154"/>
+      <c r="D227" s="146"/>
+      <c r="E227" s="146"/>
       <c r="F227" s="111" t="s">
         <v>883</v>
       </c>
@@ -9499,13 +9499,13 @@
       <c r="B228" s="17" t="s">
         <v>884</v>
       </c>
-      <c r="C228" s="191" t="s">
+      <c r="C228" s="154" t="s">
         <v>821</v>
       </c>
-      <c r="D228" s="183" t="s">
+      <c r="D228" s="146" t="s">
         <v>796</v>
       </c>
-      <c r="E228" s="183"/>
+      <c r="E228" s="146"/>
       <c r="F228" s="111" t="s">
         <v>885</v>
       </c>
@@ -9520,9 +9520,9 @@
       <c r="B229" s="17" t="s">
         <v>871</v>
       </c>
-      <c r="C229" s="191"/>
-      <c r="D229" s="183"/>
-      <c r="E229" s="183"/>
+      <c r="C229" s="154"/>
+      <c r="D229" s="146"/>
+      <c r="E229" s="146"/>
       <c r="F229" s="111" t="s">
         <v>886</v>
       </c>
@@ -9537,13 +9537,13 @@
       <c r="B230" s="17" t="s">
         <v>871</v>
       </c>
-      <c r="C230" s="191" t="s">
+      <c r="C230" s="154" t="s">
         <v>821</v>
       </c>
-      <c r="D230" s="183" t="s">
+      <c r="D230" s="146" t="s">
         <v>797</v>
       </c>
-      <c r="E230" s="183"/>
+      <c r="E230" s="146"/>
       <c r="F230" s="111" t="s">
         <v>887</v>
       </c>
@@ -9558,9 +9558,9 @@
       <c r="B231" s="17" t="s">
         <v>868</v>
       </c>
-      <c r="C231" s="191"/>
-      <c r="D231" s="183"/>
-      <c r="E231" s="183"/>
+      <c r="C231" s="154"/>
+      <c r="D231" s="146"/>
+      <c r="E231" s="146"/>
       <c r="F231" s="111" t="s">
         <v>888</v>
       </c>
@@ -9581,7 +9581,7 @@
       <c r="D232" s="111" t="s">
         <v>807</v>
       </c>
-      <c r="E232" s="183"/>
+      <c r="E232" s="146"/>
       <c r="F232" s="111" t="s">
         <v>889</v>
       </c>
@@ -9602,7 +9602,7 @@
       <c r="D233" s="112" t="s">
         <v>890</v>
       </c>
-      <c r="E233" s="184"/>
+      <c r="E233" s="147"/>
       <c r="F233" s="112" t="s">
         <v>891</v>
       </c>
@@ -9623,7 +9623,7 @@
       <c r="D234" s="113" t="s">
         <v>892</v>
       </c>
-      <c r="E234" s="185"/>
+      <c r="E234" s="148"/>
       <c r="F234" s="113" t="s">
         <v>893</v>
       </c>
@@ -10257,70 +10257,20 @@
     </row>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="E52:E55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E37:E41"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E42:E47"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="D45:D47"/>
-    <mergeCell ref="E22:E36"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="E183:E189"/>
-    <mergeCell ref="E190:E234"/>
-    <mergeCell ref="C193:C195"/>
-    <mergeCell ref="D193:D195"/>
-    <mergeCell ref="F193:F194"/>
-    <mergeCell ref="C196:C213"/>
-    <mergeCell ref="D196:D213"/>
-    <mergeCell ref="F196:F197"/>
-    <mergeCell ref="F199:F200"/>
-    <mergeCell ref="F202:F203"/>
-    <mergeCell ref="F205:F206"/>
-    <mergeCell ref="F208:F209"/>
-    <mergeCell ref="F211:F212"/>
-    <mergeCell ref="C214:C216"/>
-    <mergeCell ref="D214:D216"/>
-    <mergeCell ref="C217:C219"/>
-    <mergeCell ref="D217:D219"/>
-    <mergeCell ref="C220:C227"/>
-    <mergeCell ref="D220:D227"/>
-    <mergeCell ref="C228:C229"/>
-    <mergeCell ref="D228:D229"/>
-    <mergeCell ref="C230:C231"/>
-    <mergeCell ref="D230:D231"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="D91:D92"/>
-    <mergeCell ref="E93:E102"/>
-    <mergeCell ref="C95:C102"/>
-    <mergeCell ref="D95:D102"/>
-    <mergeCell ref="G96:G102"/>
-    <mergeCell ref="E103:E120"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="D107:D109"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="C113:C120"/>
-    <mergeCell ref="D113:D120"/>
-    <mergeCell ref="E56:E92"/>
+    <mergeCell ref="G164:G165"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="D174:D175"/>
+    <mergeCell ref="C177:C178"/>
+    <mergeCell ref="D177:D178"/>
+    <mergeCell ref="G135:G138"/>
+    <mergeCell ref="C142:C152"/>
+    <mergeCell ref="D142:D152"/>
+    <mergeCell ref="G143:G152"/>
+    <mergeCell ref="C153:C162"/>
+    <mergeCell ref="D153:D162"/>
+    <mergeCell ref="G154:G162"/>
     <mergeCell ref="C2:C21"/>
     <mergeCell ref="D2:D21"/>
     <mergeCell ref="E2:E5"/>
@@ -10345,20 +10295,70 @@
     <mergeCell ref="C59:C60"/>
     <mergeCell ref="C89:C90"/>
     <mergeCell ref="D89:D90"/>
-    <mergeCell ref="G164:G165"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="D171:D172"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="D174:D175"/>
-    <mergeCell ref="C177:C178"/>
-    <mergeCell ref="D177:D178"/>
-    <mergeCell ref="G135:G138"/>
-    <mergeCell ref="C142:C152"/>
-    <mergeCell ref="D142:D152"/>
-    <mergeCell ref="G143:G152"/>
-    <mergeCell ref="C153:C162"/>
-    <mergeCell ref="D153:D162"/>
-    <mergeCell ref="G154:G162"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E93:E102"/>
+    <mergeCell ref="C95:C102"/>
+    <mergeCell ref="D95:D102"/>
+    <mergeCell ref="G96:G102"/>
+    <mergeCell ref="E103:E120"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="D107:D109"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="C113:C120"/>
+    <mergeCell ref="D113:D120"/>
+    <mergeCell ref="E56:E92"/>
+    <mergeCell ref="E183:E189"/>
+    <mergeCell ref="E190:E234"/>
+    <mergeCell ref="C193:C195"/>
+    <mergeCell ref="D193:D195"/>
+    <mergeCell ref="F193:F194"/>
+    <mergeCell ref="C196:C213"/>
+    <mergeCell ref="D196:D213"/>
+    <mergeCell ref="F196:F197"/>
+    <mergeCell ref="F199:F200"/>
+    <mergeCell ref="F202:F203"/>
+    <mergeCell ref="F205:F206"/>
+    <mergeCell ref="F208:F209"/>
+    <mergeCell ref="F211:F212"/>
+    <mergeCell ref="C214:C216"/>
+    <mergeCell ref="D214:D216"/>
+    <mergeCell ref="C217:C219"/>
+    <mergeCell ref="D217:D219"/>
+    <mergeCell ref="C220:C227"/>
+    <mergeCell ref="D220:D227"/>
+    <mergeCell ref="C228:C229"/>
+    <mergeCell ref="D228:D229"/>
+    <mergeCell ref="C230:C231"/>
+    <mergeCell ref="D230:D231"/>
+    <mergeCell ref="E22:E36"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="E48:E51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="E52:E55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E42:E47"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="D45:D47"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.43307086614173229" bottom="0.35433070866141736" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -10382,7 +10382,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.69921875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="199"/>
       <c r="B1" s="201" t="s">
         <v>34</v>
@@ -10395,7 +10395,7 @@
       <c r="H1" s="204"/>
       <c r="I1" s="205"/>
     </row>
-    <row r="2" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="200"/>
       <c r="B2" s="22" t="s">
         <v>516</v>
@@ -10410,7 +10410,7 @@
       <c r="H2" s="207"/>
       <c r="I2" s="208"/>
     </row>
-    <row r="3" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="200"/>
       <c r="B3" s="23">
         <v>11</v>
@@ -10425,7 +10425,7 @@
       <c r="H3" s="207"/>
       <c r="I3" s="208"/>
     </row>
-    <row r="4" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="200"/>
       <c r="B4" s="23">
         <v>21</v>
@@ -10440,7 +10440,7 @@
       <c r="H4" s="207"/>
       <c r="I4" s="208"/>
     </row>
-    <row r="5" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="200"/>
       <c r="B5" s="23">
         <v>22</v>
@@ -10455,7 +10455,7 @@
       <c r="H5" s="207"/>
       <c r="I5" s="208"/>
     </row>
-    <row r="6" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="200"/>
       <c r="B6" s="23">
         <v>23</v>
@@ -10470,7 +10470,7 @@
       <c r="H6" s="207"/>
       <c r="I6" s="208"/>
     </row>
-    <row r="7" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="200"/>
       <c r="B7" s="23">
         <v>24</v>
@@ -10485,7 +10485,7 @@
       <c r="H7" s="207"/>
       <c r="I7" s="208"/>
     </row>
-    <row r="8" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="200"/>
       <c r="B8" s="23">
         <v>25</v>
@@ -10500,7 +10500,7 @@
       <c r="H8" s="207"/>
       <c r="I8" s="208"/>
     </row>
-    <row r="9" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="200"/>
       <c r="B9" s="23">
         <v>26</v>
@@ -10515,7 +10515,7 @@
       <c r="H9" s="207"/>
       <c r="I9" s="208"/>
     </row>
-    <row r="10" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="200"/>
       <c r="B10" s="23">
         <v>31</v>
@@ -10530,7 +10530,7 @@
       <c r="H10" s="207"/>
       <c r="I10" s="208"/>
     </row>
-    <row r="11" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="200"/>
       <c r="B11" s="23">
         <v>32</v>
@@ -10545,7 +10545,7 @@
       <c r="H11" s="207"/>
       <c r="I11" s="208"/>
     </row>
-    <row r="12" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="200"/>
       <c r="B12" s="23">
         <v>33</v>
@@ -10560,7 +10560,7 @@
       <c r="H12" s="207"/>
       <c r="I12" s="208"/>
     </row>
-    <row r="13" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="200"/>
       <c r="B13" s="23">
         <v>34</v>
@@ -10575,7 +10575,7 @@
       <c r="H13" s="207"/>
       <c r="I13" s="208"/>
     </row>
-    <row r="14" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="200"/>
       <c r="B14" s="23">
         <v>35</v>
@@ -10590,7 +10590,7 @@
       <c r="H14" s="207"/>
       <c r="I14" s="208"/>
     </row>
-    <row r="15" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="200"/>
       <c r="B15" s="23">
         <v>36</v>
@@ -10605,7 +10605,7 @@
       <c r="H15" s="207"/>
       <c r="I15" s="208"/>
     </row>
-    <row r="16" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="200"/>
       <c r="B16" s="23">
         <v>37</v>
@@ -10620,7 +10620,7 @@
       <c r="H16" s="207"/>
       <c r="I16" s="208"/>
     </row>
-    <row r="17" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="200"/>
       <c r="B17" s="24">
         <v>38</v>
@@ -10635,7 +10635,7 @@
       <c r="H17" s="207"/>
       <c r="I17" s="208"/>
     </row>
-    <row r="18" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="200"/>
       <c r="B18" s="26">
         <v>39</v>
@@ -10721,7 +10721,7 @@
       <c r="H23" s="210"/>
       <c r="I23" s="211"/>
     </row>
-    <row r="24" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="212"/>
       <c r="B24" s="215" t="s">
         <v>52</v>
@@ -10736,7 +10736,7 @@
       <c r="H24" s="223"/>
       <c r="I24" s="224"/>
     </row>
-    <row r="25" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="213"/>
       <c r="B25" s="28" t="s">
         <v>516</v>
@@ -10759,7 +10759,7 @@
       </c>
       <c r="I25" s="225"/>
     </row>
-    <row r="26" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="213"/>
       <c r="B26" s="31">
         <v>11000</v>
@@ -10778,7 +10778,7 @@
       <c r="H26" s="33"/>
       <c r="I26" s="225"/>
     </row>
-    <row r="27" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="213"/>
       <c r="B27" s="28">
         <v>11010</v>
@@ -10801,7 +10801,7 @@
       </c>
       <c r="I27" s="225"/>
     </row>
-    <row r="28" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="213"/>
       <c r="B28" s="28">
         <v>11020</v>
@@ -10824,7 +10824,7 @@
       </c>
       <c r="I28" s="225"/>
     </row>
-    <row r="29" spans="1:9" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="213"/>
       <c r="B29" s="28">
         <v>11030</v>
